--- a/all/Age.xlsx
+++ b/all/Age.xlsx
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/all/Age.xlsx
+++ b/all/Age.xlsx
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
